--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acandia\Documents\R\10yr_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49E127FD-E48F-428B-8A2F-517575BEDEEB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E9C2F0-D4F6-46B8-B46E-F5C335742B23}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{449116DF-F525-4DF4-82E2-7D5E76788271}"/>
+    <workbookView xWindow="405" yWindow="1665" windowWidth="21600" windowHeight="11385" xr2:uid="{449116DF-F525-4DF4-82E2-7D5E76788271}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>10_yr_yield_%</t>
-  </si>
-  <si>
     <t>gdp</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>fed_bias</t>
+  </si>
+  <si>
+    <t>ten_yr_yield</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
   <dimension ref="A1:G866"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G866"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,22 +439,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
